--- a/published-data/fonds-solidarite/fds-2020-07-09/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-07-09/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,12 +489,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>326000.00</t>
+          <t>330000.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +531,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>802</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2008462.82</t>
+          <t>2010761.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -589,12 +657,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>75000.00</t>
+          <t>78500.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -715,12 +783,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>54000.00</t>
+          <t>66000.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +825,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>532990.66</t>
+          <t>565990.66</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +867,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>292891.77</t>
+          <t>314891.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +909,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>83500.00</t>
+          <t>94000.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1219,12 +1287,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>109500.00</t>
+          <t>111500.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1303,12 +1371,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>328600.00</t>
+          <t>332600.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1387,12 +1455,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29500.00</t>
+          <t>31500.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1723,12 +1791,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1020811.79</t>
+          <t>1026811.79</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3361,12 +3429,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>734</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1888946.83</t>
+          <t>1892946.83</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3445,12 +3513,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>331500.00</t>
+          <t>335000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3823,12 +3891,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>171200.00</t>
+          <t>173200.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3865,12 +3933,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>807472.09</t>
+          <t>814972.09</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3975,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>409192.00</t>
+          <t>414192.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +4017,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>138209.01</t>
+          <t>141709.01</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3991,12 +4059,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>22500.00</t>
+          <t>27500.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
